--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="205" uniqueCount="150">
   <si>
     <t>Property</t>
   </si>
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -642,7 +642,9 @@
       <c r="A5" t="s" s="2">
         <v>8</v>
       </c>
-      <c r="B5" s="2"/>
+      <c r="B5" t="s" s="2">
+        <v>7</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.3.0</t>
+    <t>3.4.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.0</t>
+    <t>3.4.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.4.1</t>
+    <t>3.5.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.0</t>
+    <t>3.5.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.5.1</t>
+    <t>4.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.0</t>
+    <t>4.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>4.0.1</t>
+    <t>5.0.0</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.0</t>
+    <t>5.0.1</t>
   </si>
   <si>
     <t>Name</t>

--- a/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
+++ b/fhir/CodeSystem-urn-ietf-bcp-47.xlsx
@@ -30,7 +30,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>5.0.1</t>
+    <t>6.0.0</t>
   </si>
   <si>
     <t>Name</t>
